--- a/SPE/Metadata/TMP_EXP_recovery_actual_OO_CO.xlsx
+++ b/SPE/Metadata/TMP_EXP_recovery_actual_OO_CO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myer056/GitHub/tempest_ionic_strength/SPE/Metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FC2AF8-B43E-D143-A309-77248C1CF8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD62305-F2E4-EF46-B7FB-EAF5AF773014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="1640" windowWidth="33540" windowHeight="18800" xr2:uid="{3F344AAB-10BF-491A-B14D-6F9227482BB0}"/>
+    <workbookView xWindow="2080" yWindow="-20420" windowWidth="33540" windowHeight="18800" xr2:uid="{3F344AAB-10BF-491A-B14D-6F9227482BB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
   <si>
     <t>Short_ID</t>
   </si>
@@ -426,6 +426,21 @@
   </si>
   <si>
     <t>water_added_mL</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>missing data entry so updating calculation formula</t>
+  </si>
+  <si>
+    <t>omit</t>
+  </si>
+  <si>
+    <t>Action</t>
   </si>
 </sst>
 </file>
@@ -831,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4A7C93-91BC-408D-A859-A315030BE1DF}">
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:L105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -846,12 +861,13 @@
     <col min="5" max="6" width="12.1640625" customWidth="1"/>
     <col min="7" max="7" width="21.33203125" customWidth="1"/>
     <col min="8" max="8" width="21.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20.1640625" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -876,14 +892,20 @@
       <c r="H1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -911,8 +933,9 @@
         <f>G2-E2</f>
         <v>6.9135000000000009</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -941,7 +964,7 @@
         <v>6.9280999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -970,7 +993,7 @@
         <v>6.9602000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -999,7 +1022,7 @@
         <v>6.9622000000000011</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1028,7 +1051,7 @@
         <v>6.9250999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1057,7 +1080,7 @@
         <v>6.9718999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1086,7 +1109,7 @@
         <v>6.9274000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1115,7 +1138,7 @@
         <v>6.9640999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1144,7 +1167,7 @@
         <v>6.8448000000000011</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1173,7 +1196,7 @@
         <v>6.9264999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1202,7 +1225,7 @@
         <v>6.9814999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1231,7 +1254,7 @@
         <v>6.9563999999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1260,7 +1283,7 @@
         <v>6.9581999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1289,7 +1312,7 @@
         <v>6.9793999999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1317,7 +1340,7 @@
         <f t="shared" si="2"/>
         <v>6.9045000000000005</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2247,7 +2270,7 @@
         <v>7.0245999999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>56</v>
       </c>
@@ -2276,7 +2299,7 @@
         <v>6.9606000000000003</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>57</v>
       </c>
@@ -2305,7 +2328,7 @@
         <v>7.0016999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>58</v>
       </c>
@@ -2327,8 +2350,14 @@
       <c r="G51" s="2">
         <v>13.717499999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H51" s="8">
+        <f>G51+F51</f>
+        <v>6.9830999999999994</v>
+      </c>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>59</v>
       </c>
@@ -2350,8 +2379,14 @@
       <c r="G52" s="2">
         <v>13.7113</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H52" s="8">
+        <f>G52+F52</f>
+        <v>6.9624999999999995</v>
+      </c>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>60</v>
       </c>
@@ -2372,15 +2407,18 @@
         <f t="shared" si="1"/>
         <v>3.00000000000189E-4</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="5">
         <v>6.7442000000000002</v>
       </c>
-      <c r="H53" s="9">
-        <f t="shared" si="2"/>
-        <v>-2.5299999999999656E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H53" s="8">
+        <f>G53</f>
+        <v>6.7442000000000002</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -2409,7 +2447,7 @@
         <v>6.9855</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -2438,7 +2476,7 @@
         <v>6.9647000000000006</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -2467,7 +2505,7 @@
         <v>7.0057999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -2496,7 +2534,7 @@
         <v>6.8915999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>65</v>
       </c>
@@ -2525,7 +2563,7 @@
         <v>6.9758000000000004</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>66</v>
       </c>
@@ -2554,7 +2592,7 @@
         <v>6.9770000000000003</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -2583,7 +2621,7 @@
         <v>6.9371999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>68</v>
       </c>
@@ -2612,7 +2650,7 @@
         <v>6.9555000000000007</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>69</v>
       </c>
@@ -2641,7 +2679,7 @@
         <v>6.9452000000000007</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>70</v>
       </c>
@@ -2670,7 +2708,7 @@
         <v>7.0019999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -2699,7 +2737,7 @@
         <v>7.0098000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -2728,7 +2766,7 @@
         <v>6.9922999999999993</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -2757,7 +2795,7 @@
         <v>6.9955000000000007</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -2786,7 +2824,7 @@
         <v>7.0237999999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -2815,7 +2853,7 @@
         <v>7.0148000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>76</v>
       </c>
@@ -2823,23 +2861,20 @@
         <v>6.7248999999999999</v>
       </c>
       <c r="C69" s="3"/>
-      <c r="D69" s="8">
-        <f t="shared" si="4"/>
-        <v>-8.4931800959838348</v>
-      </c>
-      <c r="F69" s="3">
-        <f t="shared" si="5"/>
-        <v>-6.7248999999999999</v>
-      </c>
-      <c r="H69" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="1" t="s">
+      <c r="D69" s="8"/>
+      <c r="F69" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H69" s="9"/>
+      <c r="I69" t="s">
+        <v>121</v>
+      </c>
+      <c r="J69"/>
+      <c r="L69" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -2868,7 +2903,7 @@
         <v>7.0103999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>78</v>
       </c>
@@ -2896,11 +2931,11 @@
         <f t="shared" si="6"/>
         <v>6.9943000000000008</v>
       </c>
-      <c r="J71" t="s">
+      <c r="L71" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -2929,7 +2964,7 @@
         <v>6.9615</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -2958,7 +2993,7 @@
         <v>7.0066000000000006</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -2987,7 +3022,7 @@
         <v>6.9646999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -3016,7 +3051,7 @@
         <v>6.9813000000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>83</v>
       </c>
@@ -3044,11 +3079,15 @@
         <f t="shared" si="6"/>
         <v>6.9553000000000003</v>
       </c>
-      <c r="J76" s="4" t="s">
+      <c r="I76" t="s">
+        <v>121</v>
+      </c>
+      <c r="J76"/>
+      <c r="L76" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -3077,7 +3116,7 @@
         <v>7.0133999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>85</v>
       </c>
@@ -3106,7 +3145,7 @@
         <v>6.9773999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>86</v>
       </c>
@@ -3135,7 +3174,7 @@
         <v>6.9605000000000006</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>87</v>
       </c>
@@ -3149,7 +3188,7 @@
         <f t="shared" si="4"/>
         <v>0.24122253094215693</v>
       </c>
-      <c r="E80" s="2"/>
+      <c r="E80" s="5"/>
       <c r="F80" s="2">
         <f t="shared" si="5"/>
         <v>-6.7614999999999998</v>
@@ -3157,12 +3196,15 @@
       <c r="G80" s="2">
         <v>13.754</v>
       </c>
-      <c r="H80" s="9">
-        <f t="shared" si="6"/>
-        <v>13.754</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H80" s="8">
+        <f>G80+F80</f>
+        <v>6.9924999999999997</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>88</v>
       </c>
@@ -3191,7 +3233,7 @@
         <v>7.0152999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>89</v>
       </c>
@@ -3205,7 +3247,7 @@
         <f t="shared" si="4"/>
         <v>0.2321293255872692</v>
       </c>
-      <c r="E82" s="2"/>
+      <c r="E82" s="5"/>
       <c r="F82" s="2">
         <f t="shared" si="5"/>
         <v>-6.7583000000000002</v>
@@ -3213,12 +3255,15 @@
       <c r="G82" s="2">
         <v>13.695399999999999</v>
       </c>
-      <c r="H82" s="9">
-        <f t="shared" si="6"/>
-        <v>13.695399999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H82" s="8">
+        <f>F82+G82</f>
+        <v>6.9370999999999992</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>90</v>
       </c>
@@ -3247,7 +3292,7 @@
         <v>6.9884000000000013</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>91</v>
       </c>
@@ -3276,7 +3321,7 @@
         <v>6.9135</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -3305,7 +3350,7 @@
         <v>6.995000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>93</v>
       </c>
@@ -3334,7 +3379,7 @@
         <v>6.9672999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>94</v>
       </c>
@@ -3362,7 +3407,7 @@
         <v>6.9107999999999992</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>95</v>
       </c>
@@ -3391,7 +3436,7 @@
         <v>6.9978999999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -3420,7 +3465,7 @@
         <v>7.0244</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>97</v>
       </c>
@@ -3449,7 +3494,7 @@
         <v>7.0045000000000011</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>98</v>
       </c>
@@ -3463,7 +3508,7 @@
         <f t="shared" si="4"/>
         <v>0.23629704470825974</v>
       </c>
-      <c r="E91" s="2"/>
+      <c r="E91" s="5"/>
       <c r="F91" s="2">
         <f t="shared" si="5"/>
         <v>-6.7445000000000004</v>
@@ -3471,12 +3516,15 @@
       <c r="G91" s="2">
         <v>13.6889</v>
       </c>
-      <c r="H91" s="9">
-        <f t="shared" si="6"/>
-        <v>13.6889</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H91" s="8">
+        <f>G91+F91</f>
+        <v>6.9443999999999999</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>99</v>
       </c>
@@ -3490,7 +3538,7 @@
         <f t="shared" si="4"/>
         <v>0.23654963374589602</v>
       </c>
-      <c r="E92" s="2"/>
+      <c r="E92" s="5"/>
       <c r="F92" s="2">
         <f t="shared" si="5"/>
         <v>-6.7432999999999996</v>
@@ -3498,12 +3546,15 @@
       <c r="G92" s="2">
         <v>13.726000000000001</v>
       </c>
-      <c r="H92" s="9">
-        <f t="shared" si="6"/>
-        <v>13.726000000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H92" s="8">
+        <f>G92+F92</f>
+        <v>6.9827000000000012</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>100</v>
       </c>
@@ -3532,7 +3583,7 @@
         <v>6.9391999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>101</v>
       </c>
@@ -3561,7 +3612,7 @@
         <v>6.9447000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>102</v>
       </c>
@@ -3575,7 +3626,7 @@
         <f t="shared" si="4"/>
         <v>0.23932811315988972</v>
       </c>
-      <c r="E95" s="2"/>
+      <c r="E95" s="5"/>
       <c r="F95" s="2">
         <f t="shared" si="5"/>
         <v>-6.7390999999999996</v>
@@ -3583,12 +3634,15 @@
       <c r="G95" s="2">
         <v>13.724500000000001</v>
       </c>
-      <c r="H95" s="9">
-        <f t="shared" si="6"/>
-        <v>13.724500000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H95" s="8">
+        <f>G95+F95</f>
+        <v>6.9854000000000012</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>103</v>
       </c>
@@ -3617,7 +3671,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -3646,7 +3700,7 @@
         <v>6.9930000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>105</v>
       </c>
@@ -3675,7 +3729,7 @@
         <v>6.8968000000000007</v>
       </c>
     </row>
-    <row r="99" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>106</v>
       </c>
@@ -3685,23 +3739,20 @@
       <c r="C99" s="3">
         <v>6.9218000000000002</v>
       </c>
-      <c r="D99" s="8">
-        <f t="shared" si="7"/>
-        <v>0.25423086638039888</v>
-      </c>
-      <c r="F99" s="3">
-        <f t="shared" si="5"/>
-        <v>-6.7205000000000004</v>
-      </c>
-      <c r="H99" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="1" t="s">
+      <c r="D99" s="8"/>
+      <c r="F99" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="H99" s="9"/>
+      <c r="I99" t="s">
+        <v>121</v>
+      </c>
+      <c r="J99"/>
+      <c r="L99" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>107</v>
       </c>
@@ -3730,7 +3781,7 @@
         <v>6.9993000000000007</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>108</v>
       </c>
@@ -3759,7 +3810,7 @@
         <v>6.9496999999999991</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>109</v>
       </c>
@@ -3788,7 +3839,7 @@
         <v>6.7606999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>43</v>
       </c>
@@ -3817,7 +3868,7 @@
         <v>6.9128999999999996</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>44</v>
       </c>
@@ -3846,7 +3897,7 @@
         <v>6.9230000000000009</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>47</v>
       </c>
